--- a/resources/acronyms.xlsx
+++ b/resources/acronyms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\g2sq\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A98918F-8DED-43A5-A3B4-F3D8128434B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74767E0-3AE1-440A-BAE2-6B2E580C1891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>acronym</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>Don't Know</t>
+  </si>
+  <si>
+    <t>CATI</t>
+  </si>
+  <si>
+    <t>Computer Assissted Telephone Interviewing</t>
+  </si>
+  <si>
+    <t>PAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pen-and-Paper Personal Interviews </t>
+  </si>
+  <si>
+    <t>TSQ</t>
+  </si>
+  <si>
+    <t>Total Survey Quality</t>
   </si>
 </sst>
 </file>
@@ -419,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,6 +496,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/acronyms.xlsx
+++ b/resources/acronyms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\g2sq\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74767E0-3AE1-440A-BAE2-6B2E580C1891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A98127E-C3EB-498C-AED6-3B391FA5B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>acronym</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Total Survey Quality</t>
+  </si>
+  <si>
+    <t>ToT</t>
+  </si>
+  <si>
+    <t>Training of Trainers</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +526,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/acronyms.xlsx
+++ b/resources/acronyms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\g2sq\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A98127E-C3EB-498C-AED6-3B391FA5B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B69B981-B781-4AC0-A8F2-FE2F32B52FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>acronym</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>Training of Trainers</t>
+  </si>
+  <si>
+    <t>ToR</t>
+  </si>
+  <si>
+    <t>Terms of Reference</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Quality Asssurance</t>
   </si>
 </sst>
 </file>
@@ -443,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,6 +546,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/acronyms.xlsx
+++ b/resources/acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\g2sq\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B69B981-B781-4AC0-A8F2-FE2F32B52FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93185AD-5275-4BB7-8254-4E64B099B2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>acronym</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Quality Asssurance</t>
+  </si>
+  <si>
+    <t>ToC</t>
+  </si>
+  <si>
+    <t>Table of Content</t>
+  </si>
+  <si>
+    <t>HIES</t>
+  </si>
+  <si>
+    <t>Household Income and Expenditure Survey</t>
   </si>
 </sst>
 </file>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,6 +574,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/acronyms.xlsx
+++ b/resources/acronyms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\g2sq\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93185AD-5275-4BB7-8254-4E64B099B2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72151FC-7B43-4F36-996A-CE4145106DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>acronym</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Household Income and Expenditure Survey</t>
+  </si>
+  <si>
+    <t>CAWI</t>
+  </si>
+  <si>
+    <t>Computer Assissted Web Interviewing</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,6 +596,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/acronyms.xlsx
+++ b/resources/acronyms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\g2sq\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/projects/g2sq/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72151FC-7B43-4F36-996A-CE4145106DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41695949-252A-554F-B078-FF69E322F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12580" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>acronym</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>Computer Assissted Web Interviewing</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Enumeration Area</t>
+  </si>
+  <si>
+    <t>Multiple Indicator Cluster Surveys</t>
+  </si>
+  <si>
+    <t>MICS</t>
+  </si>
+  <si>
+    <t>DHS</t>
+  </si>
+  <si>
+    <t>Demographic and Health Surveys</t>
   </si>
 </sst>
 </file>
@@ -473,18 +491,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -500,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -508,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -516,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -524,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -532,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -540,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -548,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -556,7 +574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -564,7 +582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -572,7 +590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -580,7 +598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -588,7 +606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -596,12 +614,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
